--- a/data/trans_camb/IP19C02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C02-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,77</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>36,71</t>
+          <t>13,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>-4,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,75</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,79</t>
+          <t>7,57</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,76</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>33,81</t>
+          <t>10,32</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 3,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,92; 19,25</t>
+          <t>0,0; 27,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,4; 44,74</t>
+          <t>0,0; 57,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 0,62</t>
+          <t>-22,61; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,01; 18,61</t>
+          <t>-8,99; 23,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,43; 38,28</t>
+          <t>-4,69; 33,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 0,64</t>
+          <t>-12,9; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,57; 16,96</t>
+          <t>-3,95; 17,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,88; 39,67</t>
+          <t>-0,63; 30,8</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-19,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>150,27%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>468,46%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-50,74%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>143,56%</t>
+          <t>52,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>363,84%</t>
+          <t>167,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-35,24%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>146,87%</t>
+          <t>169,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>422,04%</t>
+          <t>408,24%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-65,02; 88,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,81; 392,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>234,28; 957,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-81,28; 22,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,6; 337,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>178,15; 724,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-66,49; 12,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>65,87; 287,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>258,95; 655,32</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,76</t>
+          <t>11,77</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23,38</t>
+          <t>36,71</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13,04</t>
+          <t>11,75</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,68</t>
+          <t>29,79</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>11,4</t>
+          <t>11,76</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>24,98</t>
+          <t>33,81</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 10,33</t>
+          <t>-7,11; 3,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,16; 17,3</t>
+          <t>3,92; 19,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,19; 32,91</t>
+          <t>28,4; 44,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 7,32</t>
+          <t>-9,45; 0,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,76; 22,09</t>
+          <t>4,01; 18,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,99; 37,25</t>
+          <t>20,43; 38,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 7,05</t>
+          <t>-6,58; 0,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,15; 16,82</t>
+          <t>6,57; 16,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,99; 31,87</t>
+          <t>27,88; 39,67</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>47,8%</t>
+          <t>-19,44%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>141,33%</t>
+          <t>150,27%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>338,68%</t>
+          <t>468,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>-50,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>168,28%</t>
+          <t>143,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>344,35%</t>
+          <t>363,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>-35,24%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>155,4%</t>
+          <t>146,87%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>340,39%</t>
+          <t>422,04%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,43; 272,5</t>
+          <t>-65,02; 88,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,11; 449,7</t>
+          <t>25,81; 392,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>121,2; 822,82</t>
+          <t>234,28; 957,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-66,69; 151,44</t>
+          <t>-81,28; 22,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>47,55; 542,59</t>
+          <t>29,6; 337,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>152,43; 926,8</t>
+          <t>178,15; 724,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,92; 130,62</t>
+          <t>-66,49; 12,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>55,53; 323,46</t>
+          <t>65,87; 287,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>187,92; 615,71</t>
+          <t>258,95; 655,32</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>13,85</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,99</t>
+          <t>14,6</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,51</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>10,85</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>14,02</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1315,12 +1315,12 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>12,34</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10,32</t>
+          <t>14,31</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,14; 0,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,52</t>
+          <t>4,19; 23,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,38</t>
+          <t>5,31; 26,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 0,0</t>
+          <t>-6,32; 6,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 23,43</t>
+          <t>3,06; 18,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 33,14</t>
+          <t>5,39; 22,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 0,0</t>
+          <t>-6,82; 1,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 17,09</t>
+          <t>6,34; 18,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 30,8</t>
+          <t>8,4; 21,4</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,1%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>191,7%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>202,09%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-6,58%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>52,42%</t>
+          <t>169,92%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>167,92%</t>
+          <t>219,61%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-37,09%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>169,41%</t>
+          <t>180,7%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>408,24%</t>
+          <t>209,5%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,07; 72,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,72; 610,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,41; 626,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,31; 202,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,61; 534,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,05; 617,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,43; 35,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>66,63; 383,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>90,33; 494,95</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>13,85</t>
+          <t>9,76</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>14,6</t>
+          <t>23,38</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>10,85</t>
+          <t>13,04</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>14,02</t>
+          <t>26,68</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>12,34</t>
+          <t>11,4</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>14,31</t>
+          <t>24,98</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 0,92</t>
+          <t>-3,2; 10,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,19; 23,56</t>
+          <t>2,16; 17,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,31; 26,52</t>
+          <t>14,19; 32,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 6,06</t>
+          <t>-6,72; 7,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,06; 18,38</t>
+          <t>5,76; 22,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,39; 22,37</t>
+          <t>17,99; 37,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 1,46</t>
+          <t>-2,94; 7,05</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,34; 18,28</t>
+          <t>6,15; 16,82</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8,4; 21,4</t>
+          <t>18,99; 31,87</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-62,1%</t>
+          <t>47,8%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>191,7%</t>
+          <t>141,33%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>202,09%</t>
+          <t>338,68%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-6,58%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>169,92%</t>
+          <t>168,28%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>219,61%</t>
+          <t>344,35%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-37,09%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>180,7%</t>
+          <t>155,4%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>209,5%</t>
+          <t>340,39%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-93,07; 72,92</t>
+          <t>-38,43; 272,5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>29,72; 610,29</t>
+          <t>7,11; 449,7</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>34,41; 626,69</t>
+          <t>121,2; 822,82</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-72,31; 202,12</t>
+          <t>-66,69; 151,44</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>23,61; 534,46</t>
+          <t>47,55; 542,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>44,05; 617,93</t>
+          <t>152,43; 926,8</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-73,43; 35,91</t>
+          <t>-31,92; 130,62</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>66,63; 383,17</t>
+          <t>55,53; 323,46</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>90,33; 494,95</t>
+          <t>187,92; 615,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C02-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,52</t>
+          <t>0,0; 27,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 0,0</t>
+          <t>-25,29; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 23,43</t>
+          <t>-9,05; 23,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 33,14</t>
+          <t>-5,28; 33,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 0,0</t>
+          <t>-14,1; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 17,09</t>
+          <t>-4,1; 17,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 30,8</t>
+          <t>-1,38; 30,01</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 8,36</t>
+          <t>-4,85; 8,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,55; 32,17</t>
+          <t>9,72; 30,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,35; 40,94</t>
+          <t>16,2; 40,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 6,98</t>
+          <t>-8,59; 5,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 22,37</t>
+          <t>2,33; 22,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,59; 40,55</t>
+          <t>16,63; 41,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 5,54</t>
+          <t>-4,76; 5,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,88; 23,73</t>
+          <t>9,4; 24,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,67; 37,35</t>
+          <t>19,7; 37,38</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-70,12; 337,67</t>
+          <t>-68,58; 471,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>90,22; 1229,17</t>
+          <t>92,24; 1474,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>142,33; 1657,67</t>
+          <t>160,98; 1886,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-80,45; 241,44</t>
+          <t>-83,45; 154,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,91; 782,72</t>
+          <t>8,75; 610,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>105,84; 1291,55</t>
+          <t>123,64; 1132,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-60,94; 160,01</t>
+          <t>-58,12; 158,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>109,42; 640,38</t>
+          <t>89,12; 687,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>216,51; 983,12</t>
+          <t>222,41; 1140,25</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 3,81</t>
+          <t>-7,46; 3,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,92; 19,25</t>
+          <t>4,68; 19,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,4; 44,74</t>
+          <t>28,37; 44,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 0,62</t>
+          <t>-9,38; 0,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,01; 18,61</t>
+          <t>4,48; 19,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,43; 38,28</t>
+          <t>20,65; 38,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 0,64</t>
+          <t>-6,55; 1,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,57; 16,96</t>
+          <t>6,48; 17,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>27,88; 39,67</t>
+          <t>27,68; 39,54</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,02; 88,15</t>
+          <t>-67,49; 89,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>25,81; 392,75</t>
+          <t>44,32; 381,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>234,28; 957,16</t>
+          <t>226,98; 967,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-81,28; 22,97</t>
+          <t>-81,66; 25,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>29,6; 337,49</t>
+          <t>31,16; 367,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>178,15; 724,51</t>
+          <t>162,96; 707,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-66,49; 12,13</t>
+          <t>-64,56; 20,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>65,87; 287,03</t>
+          <t>60,73; 290,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>258,95; 655,32</t>
+          <t>260,53; 687,23</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 0,92</t>
+          <t>-10,4; 0,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,19; 23,56</t>
+          <t>5,34; 22,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,31; 26,52</t>
+          <t>6,13; 27,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 6,06</t>
+          <t>-6,46; 5,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,06; 18,38</t>
+          <t>2,53; 19,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,39; 22,37</t>
+          <t>6,21; 22,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 1,46</t>
+          <t>-6,63; 1,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,34; 18,28</t>
+          <t>6,99; 18,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,4; 21,4</t>
+          <t>8,2; 20,88</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-93,07; 72,92</t>
+          <t>-94,56; 61,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>29,72; 610,29</t>
+          <t>46,24; 603,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>34,41; 626,69</t>
+          <t>46,11; 642,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-72,31; 202,12</t>
+          <t>-72,33; 187,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>23,61; 534,46</t>
+          <t>20,29; 572,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>44,05; 617,93</t>
+          <t>46,18; 634,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-73,43; 35,91</t>
+          <t>-74,49; 38,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>66,63; 383,17</t>
+          <t>71,23; 405,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>90,33; 494,95</t>
+          <t>78,06; 424,32</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 10,33</t>
+          <t>-3,47; 9,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,16; 17,3</t>
+          <t>2,82; 16,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,19; 32,91</t>
+          <t>14,27; 33,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 7,32</t>
+          <t>-5,31; 7,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,76; 22,09</t>
+          <t>5,54; 21,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>17,99; 37,25</t>
+          <t>17,48; 36,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 7,05</t>
+          <t>-2,53; 7,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,15; 16,82</t>
+          <t>5,65; 16,52</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>18,99; 31,87</t>
+          <t>18,56; 31,72</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-38,43; 272,5</t>
+          <t>-38,05; 231,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>7,11; 449,7</t>
+          <t>21,38; 499,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>121,2; 822,82</t>
+          <t>122,96; 878,51</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-66,69; 151,44</t>
+          <t>-56,08; 186,14</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>47,55; 542,59</t>
+          <t>42,87; 457,86</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>152,43; 926,8</t>
+          <t>147,35; 762,09</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-31,92; 130,62</t>
+          <t>-29,12; 145,7</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>55,53; 323,46</t>
+          <t>49,96; 333,96</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>187,92; 615,71</t>
+          <t>185,25; 623,9</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,72</t>
+          <t>-3,2; 2,56</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>8,86; 16,75</t>
+          <t>9,05; 17,25</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>22,51; 32,05</t>
+          <t>22,59; 31,84</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 1,55</t>
+          <t>-4,53; 1,66</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7,55; 15,62</t>
+          <t>7,49; 15,66</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>19,27; 28,76</t>
+          <t>19,64; 29,19</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 1,21</t>
+          <t>-2,92; 1,11</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>9,25; 14,93</t>
+          <t>9,55; 15,11</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>22,51; 29,06</t>
+          <t>22,39; 29,08</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-39,01; 51,73</t>
+          <t>-39,46; 51,63</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>109,15; 321,82</t>
+          <t>102,17; 324,17</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>262,56; 632,74</t>
+          <t>267,23; 624,92</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-50,04; 28,52</t>
+          <t>-50,43; 25,75</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>81,22; 271,1</t>
+          <t>80,59; 280,23</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>215,97; 527,5</t>
+          <t>213,59; 508,56</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 20,54</t>
+          <t>-35,64; 17,87</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>112,14; 258,28</t>
+          <t>114,03; 265,64</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>271,47; 499,07</t>
+          <t>269,18; 495,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C02-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,27</t>
+          <t>0,0; 26,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,38</t>
+          <t>0,0; 56,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 0,0</t>
+          <t>-27,86; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 23,02</t>
+          <t>-9,08; 23,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 33,09</t>
+          <t>-8,3; 30,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 0,0</t>
+          <t>-12,46; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 17,47</t>
+          <t>-2,58; 18,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 30,01</t>
+          <t>-0,87; 31,73</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 8,02</t>
+          <t>-4,77; 8,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,72; 30,59</t>
+          <t>11,04; 31,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,2; 40,72</t>
+          <t>16,3; 40,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 5,93</t>
+          <t>-8,16; 7,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 22,2</t>
+          <t>1,95; 24,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,63; 41,1</t>
+          <t>17,48; 40,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 5,31</t>
+          <t>-4,75; 5,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,4; 24,52</t>
+          <t>9,36; 24,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,7; 37,38</t>
+          <t>20,36; 37,28</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-68,58; 471,09</t>
+          <t>-67,91; 453,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92,24; 1474,63</t>
+          <t>86,6; 1391,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>160,98; 1886,68</t>
+          <t>191,72; 2060,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-83,45; 154,32</t>
+          <t>-79,62; 246,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 610,46</t>
+          <t>1,32; 676,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>123,64; 1132,6</t>
+          <t>137,84; 1430,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-58,12; 158,43</t>
+          <t>-58,98; 153,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>89,12; 687,02</t>
+          <t>93,47; 613,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>222,41; 1140,25</t>
+          <t>215,13; 1037,92</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 3,72</t>
+          <t>-6,6; 4,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,68; 19,33</t>
+          <t>4,7; 19,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,37; 44,09</t>
+          <t>28,1; 44,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 0,52</t>
+          <t>-9,53; 0,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,48; 19,5</t>
+          <t>4,8; 19,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,65; 38,24</t>
+          <t>20,83; 38,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 1,05</t>
+          <t>-6,32; 0,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,48; 17,26</t>
+          <t>6,43; 16,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>27,68; 39,54</t>
+          <t>28,28; 39,82</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-67,49; 89,6</t>
+          <t>-64,04; 90,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>44,32; 381,73</t>
+          <t>40,65; 392,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>226,98; 967,0</t>
+          <t>244,69; 887,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-81,66; 25,47</t>
+          <t>-82,36; 25,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,16; 367,81</t>
+          <t>35,32; 354,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>162,96; 707,33</t>
+          <t>162,25; 696,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-64,56; 20,88</t>
+          <t>-62,09; 16,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>60,73; 290,7</t>
+          <t>63,53; 282,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>260,53; 687,23</t>
+          <t>264,34; 693,35</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 0,76</t>
+          <t>-10,26; 0,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,34; 22,71</t>
+          <t>4,92; 22,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,13; 27,26</t>
+          <t>4,82; 25,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 5,23</t>
+          <t>-7,0; 5,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,53; 19,25</t>
+          <t>3,01; 18,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,21; 22,37</t>
+          <t>5,86; 22,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 1,5</t>
+          <t>-6,56; 1,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,99; 18,74</t>
+          <t>6,78; 19,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,2; 20,88</t>
+          <t>8,13; 21,36</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-94,56; 61,37</t>
+          <t>-97,47; 59,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>46,24; 603,54</t>
+          <t>41,2; 596,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>46,11; 642,64</t>
+          <t>40,23; 611,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-72,33; 187,87</t>
+          <t>-71,78; 190,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,29; 572,57</t>
+          <t>22,82; 523,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>46,18; 634,58</t>
+          <t>43,06; 621,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-74,49; 38,98</t>
+          <t>-72,25; 41,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>71,23; 405,63</t>
+          <t>69,38; 417,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>78,06; 424,32</t>
+          <t>78,39; 467,93</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 9,42</t>
+          <t>-2,74; 11,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,82; 16,67</t>
+          <t>2,68; 17,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,27; 33,33</t>
+          <t>14,19; 33,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 7,91</t>
+          <t>-5,87; 7,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,54; 21,53</t>
+          <t>5,16; 21,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>17,48; 36,26</t>
+          <t>17,06; 36,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 7,06</t>
+          <t>-2,87; 6,63</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,65; 16,52</t>
+          <t>6,03; 17,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>18,56; 31,72</t>
+          <t>17,37; 31,1</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-38,05; 231,3</t>
+          <t>-36,62; 314,31</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>21,38; 499,48</t>
+          <t>21,4; 485,82</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>122,96; 878,51</t>
+          <t>125,5; 875,47</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-56,08; 186,14</t>
+          <t>-55,91; 169,78</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>42,87; 457,86</t>
+          <t>38,25; 483,87</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>147,35; 762,09</t>
+          <t>142,48; 871,96</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-29,12; 145,7</t>
+          <t>-31,88; 136,82</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>49,96; 333,96</t>
+          <t>56,86; 332,78</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>185,25; 623,9</t>
+          <t>171,96; 626,78</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 2,56</t>
+          <t>-3,62; 2,55</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>9,05; 17,25</t>
+          <t>8,93; 17,21</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>22,59; 31,84</t>
+          <t>22,49; 31,92</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 1,66</t>
+          <t>-4,43; 1,51</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7,49; 15,66</t>
+          <t>7,53; 15,75</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>19,64; 29,19</t>
+          <t>19,59; 28,59</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 1,11</t>
+          <t>-3,27; 1,09</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>9,55; 15,11</t>
+          <t>9,34; 15,42</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>22,39; 29,08</t>
+          <t>22,27; 29,05</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-39,46; 51,63</t>
+          <t>-44,17; 50,66</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>102,17; 324,17</t>
+          <t>103,52; 342,51</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>267,23; 624,92</t>
+          <t>260,05; 617,89</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-50,43; 25,75</t>
+          <t>-49,03; 27,98</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>80,59; 280,23</t>
+          <t>77,93; 275,53</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>213,59; 508,56</t>
+          <t>225,84; 525,18</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-35,64; 17,87</t>
+          <t>-38,36; 20,21</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>114,03; 265,64</t>
+          <t>108,1; 251,83</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>269,18; 495,97</t>
+          <t>272,95; 492,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C02-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>10,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,99</t>
+          <t>23,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,51</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>17,65</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>24,27</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>14,02</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,32</t>
+          <t>24,03</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,34; 5,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,9</t>
+          <t>1,9; 19,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,71</t>
+          <t>13,08; 34,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,86; 0,0</t>
+          <t>-4,26; 7,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 23,14</t>
+          <t>9,33; 27,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 30,2</t>
+          <t>12,82; 35,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 0,0</t>
+          <t>-4,44; 3,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 18,13</t>
+          <t>7,74; 20,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 31,73</t>
+          <t>15,18; 32,35</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>156,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>370,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>52,42%</t>
+          <t>408,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>167,92%</t>
+          <t>561,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-3,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>169,41%</t>
+          <t>262,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>408,24%</t>
+          <t>450,07%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,55; 194,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,14; 624,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>115,44; 1101,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,23; 446,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>100,14; 1481,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>165,99; 1888,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,41; 120,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>91,46; 603,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>195,37; 963,84</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,69</t>
+          <t>11,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,76</t>
+          <t>27,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,12</t>
+          <t>11,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,77</t>
+          <t>34,76</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,61</t>
+          <t>11,76</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>28,78</t>
+          <t>31,77</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 8,47</t>
+          <t>-9,45; 0,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,04; 31,87</t>
+          <t>4,01; 18,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,3; 40,69</t>
+          <t>18,3; 35,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 7,2</t>
+          <t>-7,11; 3,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 24,25</t>
+          <t>3,92; 19,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,48; 40,81</t>
+          <t>26,21; 42,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 5,05</t>
+          <t>-6,58; 0,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,36; 24,09</t>
+          <t>6,57; 16,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,36; 37,28</t>
+          <t>26,05; 37,54</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>-50,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>398,85%</t>
+          <t>143,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>554,51%</t>
+          <t>335,29%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-12,71%</t>
+          <t>-19,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>172,5%</t>
+          <t>150,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>409,29%</t>
+          <t>443,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>-35,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>275,37%</t>
+          <t>146,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>477,03%</t>
+          <t>396,65%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-67,91; 453,42</t>
+          <t>-81,28; 22,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,6; 1391,38</t>
+          <t>29,6; 337,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>191,72; 2060,69</t>
+          <t>156,63; 673,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-79,62; 246,35</t>
+          <t>-65,02; 88,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 676,88</t>
+          <t>25,81; 392,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>137,84; 1430,32</t>
+          <t>219,85; 909,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-58,98; 153,51</t>
+          <t>-66,49; 12,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>93,47; 613,08</t>
+          <t>65,87; 287,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>215,13; 1037,92</t>
+          <t>241,22; 622,23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,77</t>
+          <t>10,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>36,71</t>
+          <t>13,64</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11,75</t>
+          <t>13,85</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>29,79</t>
+          <t>13,38</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>11,76</t>
+          <t>12,34</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>33,81</t>
+          <t>13,5</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 4,4</t>
+          <t>-6,32; 6,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,7; 19,5</t>
+          <t>3,06; 18,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,1; 44,89</t>
+          <t>5,18; 22,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 0,59</t>
+          <t>-10,14; 0,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,8; 19,11</t>
+          <t>4,19; 23,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,83; 38,47</t>
+          <t>3,88; 24,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 0,81</t>
+          <t>-6,82; 1,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,43; 16,89</t>
+          <t>6,34; 18,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,28; 39,82</t>
+          <t>7,58; 20,98</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-19,44%</t>
+          <t>-6,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>150,27%</t>
+          <t>169,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>468,46%</t>
+          <t>213,62%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-50,74%</t>
+          <t>-62,1%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>143,56%</t>
+          <t>191,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>363,84%</t>
+          <t>185,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-35,24%</t>
+          <t>-37,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>146,87%</t>
+          <t>180,7%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>422,04%</t>
+          <t>197,73%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-64,04; 90,15</t>
+          <t>-72,31; 202,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>40,65; 392,39</t>
+          <t>23,61; 534,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>244,69; 887,75</t>
+          <t>39,31; 634,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-82,36; 25,38</t>
+          <t>-93,07; 72,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>35,32; 354,09</t>
+          <t>29,72; 610,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>162,25; 696,89</t>
+          <t>24,66; 602,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-62,09; 16,62</t>
+          <t>-73,43; 35,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>63,53; 282,71</t>
+          <t>66,63; 383,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>264,34; 693,35</t>
+          <t>80,78; 479,83</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,85</t>
+          <t>13,04</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,6</t>
+          <t>25,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,85</t>
+          <t>9,76</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,02</t>
+          <t>21,83</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>12,34</t>
+          <t>11,4</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,31</t>
+          <t>23,36</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 0,93</t>
+          <t>-6,72; 7,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,92; 22,81</t>
+          <t>5,76; 22,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,82; 25,55</t>
+          <t>16,42; 35,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 5,71</t>
+          <t>-3,2; 10,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,01; 18,53</t>
+          <t>2,16; 17,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,86; 22,72</t>
+          <t>12,92; 31,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 1,7</t>
+          <t>-2,94; 7,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,78; 19,13</t>
+          <t>6,15; 16,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,13; 21,36</t>
+          <t>17,52; 30,29</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-62,1%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>191,7%</t>
+          <t>168,28%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>202,09%</t>
+          <t>324,15%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-6,58%</t>
+          <t>47,8%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>169,92%</t>
+          <t>141,33%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>219,61%</t>
+          <t>316,16%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-37,09%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>180,7%</t>
+          <t>155,4%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>209,5%</t>
+          <t>318,24%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-97,47; 59,71</t>
+          <t>-66,69; 151,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>41,2; 596,07</t>
+          <t>47,55; 542,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>40,23; 611,0</t>
+          <t>138,72; 867,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-71,78; 190,97</t>
+          <t>-38,43; 272,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,82; 523,41</t>
+          <t>7,11; 449,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>43,06; 621,39</t>
+          <t>112,01; 773,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-72,25; 41,97</t>
+          <t>-31,92; 130,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>69,38; 417,88</t>
+          <t>55,53; 323,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>78,39; 467,93</t>
+          <t>174,54; 588,5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9,76</t>
+          <t>11,63</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>23,38</t>
+          <t>22,37</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>13,04</t>
+          <t>12,87</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>26,68</t>
+          <t>24,81</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>11,4</t>
+          <t>12,26</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>24,98</t>
+          <t>23,69</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 11,21</t>
+          <t>-4,53; 1,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,68; 17,33</t>
+          <t>7,55; 15,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,19; 33,08</t>
+          <t>17,6; 26,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 7,57</t>
+          <t>-3,09; 2,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,16; 21,39</t>
+          <t>8,86; 16,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>17,06; 36,14</t>
+          <t>20,39; 29,93</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 6,63</t>
+          <t>-3,07; 1,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,03; 17,06</t>
+          <t>9,25; 14,93</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>17,37; 31,1</t>
+          <t>20,52; 27,09</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>47,8%</t>
+          <t>-21,42%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>141,33%</t>
+          <t>158,58%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>338,68%</t>
+          <t>304,99%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>-4,97%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>168,28%</t>
+          <t>192,91%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>344,35%</t>
+          <t>371,71%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>-13,45%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>155,4%</t>
+          <t>175,16%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>340,39%</t>
+          <t>338,43%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-36,62; 314,31</t>
+          <t>-50,04; 28,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>21,4; 485,82</t>
+          <t>81,22; 271,1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>125,5; 875,47</t>
+          <t>195,61; 482,5</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-55,91; 169,78</t>
+          <t>-39,01; 51,73</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>38,25; 483,87</t>
+          <t>109,15; 321,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>142,48; 871,96</t>
+          <t>238,63; 593,22</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-31,88; 136,82</t>
+          <t>-37,85; 20,54</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>56,86; 332,78</t>
+          <t>112,14; 258,28</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>171,96; 626,78</t>
+          <t>250,88; 465,36</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>12,87</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>27,04</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-1,57</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>11,63</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>24,13</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-0,94</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>12,26</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>25,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-3,62; 2,55</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>8,93; 17,21</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>22,49; 31,92</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-4,43; 1,51</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>7,53; 15,75</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>19,59; 28,59</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; 1,09</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>9,34; 15,42</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>22,27; 29,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-4,97%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>192,91%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>405,1%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-21,42%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>158,58%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>329,01%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-13,45%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>175,16%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>366,79%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-44,17; 50,66</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>103,52; 342,51</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>260,05; 617,89</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-49,03; 27,98</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>77,93; 275,53</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>225,84; 525,18</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-38,36; 20,21</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>108,1; 251,83</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>272,95; 492,77</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
